--- a/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.04.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.04.xlsx
@@ -891,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1339,7 +1339,7 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -1395,7 +1395,7 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1423,7 +1423,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1577,7 +1577,7 @@
         <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1675,7 +1675,7 @@
         <v>42</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -1759,7 +1759,7 @@
         <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -1899,7 +1899,7 @@
         <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
@@ -2165,7 +2165,7 @@
         <v>42</v>
       </c>
       <c r="C94" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -2263,7 +2263,7 @@
         <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -2557,7 +2557,7 @@
         <v>143</v>
       </c>
       <c r="C122" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
@@ -2627,7 +2627,7 @@
         <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D127" t="s">
         <v>7</v>
